--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_9_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_9_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-546464.5129081844</v>
+        <v>-548684.8823071325</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7294698.68196551</v>
+        <v>7294698.681965514</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>278.3280565175952</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.95408485166898</v>
+        <v>261.1134365864626</v>
       </c>
       <c r="H2" t="n">
-        <v>325.6629130260453</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>158.4819577621301</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>65.15181506969894</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.1921225298086</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2377606947592</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -753,10 +753,10 @@
         <v>136.6219243725646</v>
       </c>
       <c r="H3" t="n">
-        <v>105.266377021573</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>64.55231966469898</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>55.35578351937522</v>
+        <v>22.82423916409367</v>
       </c>
       <c r="S3" t="n">
-        <v>122.4628441139663</v>
+        <v>158.279901505654</v>
       </c>
       <c r="T3" t="n">
         <v>197.2562033676124</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.8485356494663</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>50.58856780127621</v>
+        <v>4.614189474004404</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>35.50496339607933</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>105.6325511952274</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>95.60231281716786</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>278.4190107396774</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>18.37682225755638</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853701</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.55700865267869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>80.07933883539192</v>
       </c>
       <c r="I8" t="n">
-        <v>111.0285509902374</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1300,19 +1300,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>162.8481409115321</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>35.19966583631458</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,13 +1421,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>201.5970026750642</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>111.9811935083365</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>43.48965213380015</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>59.3062913924036</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.1995283384038</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2062,10 +2062,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>270.380862279625</v>
       </c>
       <c r="X19" t="n">
-        <v>23.72295018814362</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>37.38100496017441</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>172.4307665912973</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,16 +2524,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>211.4265222991255</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C28" t="n">
-        <v>70.8276411951062</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>15.07437110675895</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>104.0438938896178</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3241,7 +3241,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>270.0697021486462</v>
+        <v>181.1375494785989</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3430,19 +3430,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572884</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124524</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145565</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
         <v>120.2716844800353</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797664</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124607</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1162.314092896084</v>
+        <v>1235.545018849079</v>
       </c>
       <c r="C2" t="n">
-        <v>1162.314092896084</v>
+        <v>866.5825019086674</v>
       </c>
       <c r="D2" t="n">
-        <v>804.0483942893338</v>
+        <v>866.5825019086674</v>
       </c>
       <c r="E2" t="n">
-        <v>804.0483942893338</v>
+        <v>480.7942493104231</v>
       </c>
       <c r="F2" t="n">
-        <v>393.0624894997262</v>
+        <v>473.8487485612197</v>
       </c>
       <c r="G2" t="n">
-        <v>378.9674542960202</v>
+        <v>210.0978025142877</v>
       </c>
       <c r="H2" t="n">
-        <v>50.01501689597446</v>
+        <v>210.0978025142877</v>
       </c>
       <c r="I2" t="n">
-        <v>50.01501689597446</v>
+        <v>50.01501689597449</v>
       </c>
       <c r="J2" t="n">
-        <v>151.5057773408034</v>
+        <v>151.505777340803</v>
       </c>
       <c r="K2" t="n">
         <v>424.3589227296943</v>
       </c>
       <c r="L2" t="n">
-        <v>815.1340044523761</v>
+        <v>815.1340044523763</v>
       </c>
       <c r="M2" t="n">
         <v>1266.553122639179</v>
       </c>
       <c r="N2" t="n">
-        <v>1710.644676556589</v>
+        <v>1710.64467655659</v>
       </c>
       <c r="O2" t="n">
-        <v>2084.80010013629</v>
+        <v>2084.800100136291</v>
       </c>
       <c r="P2" t="n">
-        <v>2366.458714862369</v>
+        <v>2366.45871486237</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.750844798723</v>
+        <v>2500.750844798724</v>
       </c>
       <c r="R2" t="n">
-        <v>2500.750844798723</v>
+        <v>2434.940930586907</v>
       </c>
       <c r="S2" t="n">
-        <v>2500.750844798723</v>
+        <v>2434.940930586907</v>
       </c>
       <c r="T2" t="n">
-        <v>2500.750844798723</v>
+        <v>2215.554948233565</v>
       </c>
       <c r="U2" t="n">
-        <v>2500.750844798723</v>
+        <v>1961.779432380273</v>
       </c>
       <c r="V2" t="n">
-        <v>2169.687957455152</v>
+        <v>1961.779432380273</v>
       </c>
       <c r="W2" t="n">
-        <v>1816.919302185038</v>
+        <v>1609.010777110159</v>
       </c>
       <c r="X2" t="n">
-        <v>1443.453543923958</v>
+        <v>1235.545018849079</v>
       </c>
       <c r="Y2" t="n">
-        <v>1443.453543923958</v>
+        <v>1235.545018849079</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.710449684435</v>
+        <v>817.1764126275947</v>
       </c>
       <c r="C3" t="n">
-        <v>814.2574204033081</v>
+        <v>642.7233833464677</v>
       </c>
       <c r="D3" t="n">
-        <v>665.3230107420568</v>
+        <v>493.7889736852164</v>
       </c>
       <c r="E3" t="n">
-        <v>506.0855557366013</v>
+        <v>334.5515186797609</v>
       </c>
       <c r="F3" t="n">
-        <v>359.5509977634863</v>
+        <v>188.0169607066458</v>
       </c>
       <c r="G3" t="n">
-        <v>221.5490539528149</v>
+        <v>50.01501689597449</v>
       </c>
       <c r="H3" t="n">
-        <v>115.2193801936502</v>
+        <v>50.01501689597449</v>
       </c>
       <c r="I3" t="n">
-        <v>50.01501689597446</v>
+        <v>50.01501689597449</v>
       </c>
       <c r="J3" t="n">
-        <v>116.7688388525971</v>
+        <v>116.7688388525972</v>
       </c>
       <c r="K3" t="n">
-        <v>357.4825960836031</v>
+        <v>357.4825960836033</v>
       </c>
       <c r="L3" t="n">
-        <v>742.5563448902066</v>
+        <v>742.5563448902069</v>
       </c>
       <c r="M3" t="n">
         <v>1243.898468632472</v>
       </c>
       <c r="N3" t="n">
-        <v>1602.386737850536</v>
+        <v>1774.216639987605</v>
       </c>
       <c r="O3" t="n">
-        <v>2021.108580324993</v>
+        <v>2021.108580324995</v>
       </c>
       <c r="P3" t="n">
-        <v>2340.166706403059</v>
+        <v>2340.166706403061</v>
       </c>
       <c r="Q3" t="n">
-        <v>2500.750844798723</v>
+        <v>2500.750844798724</v>
       </c>
       <c r="R3" t="n">
-        <v>2444.835911950869</v>
+        <v>2477.696057764286</v>
       </c>
       <c r="S3" t="n">
-        <v>2321.136069411509</v>
+        <v>2317.817369374737</v>
       </c>
       <c r="T3" t="n">
-        <v>2121.887379141193</v>
+        <v>2118.568679104421</v>
       </c>
       <c r="U3" t="n">
-        <v>1893.711713614866</v>
+        <v>1890.393013578094</v>
       </c>
       <c r="V3" t="n">
-        <v>1658.559605383123</v>
+        <v>1655.240905346351</v>
       </c>
       <c r="W3" t="n">
-        <v>1404.322248654922</v>
+        <v>1401.003548618149</v>
       </c>
       <c r="X3" t="n">
-        <v>1196.470748449389</v>
+        <v>1193.152048412617</v>
       </c>
       <c r="Y3" t="n">
-        <v>988.710449684435</v>
+        <v>985.3917496476627</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>554.3504857043007</v>
+        <v>370.5019447702811</v>
       </c>
       <c r="C4" t="n">
-        <v>554.3504857043007</v>
+        <v>201.5657618423741</v>
       </c>
       <c r="D4" t="n">
-        <v>554.3504857043007</v>
+        <v>201.5657618423741</v>
       </c>
       <c r="E4" t="n">
-        <v>406.4373921219076</v>
+        <v>201.5657618423741</v>
       </c>
       <c r="F4" t="n">
-        <v>259.5474446239972</v>
+        <v>54.67581434446379</v>
       </c>
       <c r="G4" t="n">
-        <v>259.5474446239972</v>
+        <v>54.67581434446379</v>
       </c>
       <c r="H4" t="n">
-        <v>101.114580331607</v>
+        <v>54.67581434446379</v>
       </c>
       <c r="I4" t="n">
-        <v>101.114580331607</v>
+        <v>54.67581434446379</v>
       </c>
       <c r="J4" t="n">
-        <v>50.01501689597446</v>
+        <v>50.01501689597449</v>
       </c>
       <c r="K4" t="n">
-        <v>97.55062208901398</v>
+        <v>97.55062208901407</v>
       </c>
       <c r="L4" t="n">
-        <v>213.9062654030064</v>
+        <v>213.9062654030066</v>
       </c>
       <c r="M4" t="n">
-        <v>346.976100107102</v>
+        <v>346.9761001071023</v>
       </c>
       <c r="N4" t="n">
-        <v>482.3164479894922</v>
+        <v>482.3164479894925</v>
       </c>
       <c r="O4" t="n">
-        <v>591.3088692144632</v>
+        <v>591.3088692144637</v>
       </c>
       <c r="P4" t="n">
-        <v>661.0500323661465</v>
+        <v>661.0500323661471</v>
       </c>
       <c r="Q4" t="n">
-        <v>661.0500323661465</v>
+        <v>625.1864329761679</v>
       </c>
       <c r="R4" t="n">
-        <v>661.0500323661465</v>
+        <v>625.1864329761679</v>
       </c>
       <c r="S4" t="n">
-        <v>661.0500323661465</v>
+        <v>625.1864329761679</v>
       </c>
       <c r="T4" t="n">
-        <v>661.0500323661465</v>
+        <v>625.1864329761679</v>
       </c>
       <c r="U4" t="n">
-        <v>554.3504857043007</v>
+        <v>625.1864329761679</v>
       </c>
       <c r="V4" t="n">
-        <v>554.3504857043007</v>
+        <v>370.5019447702811</v>
       </c>
       <c r="W4" t="n">
-        <v>554.3504857043007</v>
+        <v>370.5019447702811</v>
       </c>
       <c r="X4" t="n">
-        <v>554.3504857043007</v>
+        <v>370.5019447702811</v>
       </c>
       <c r="Y4" t="n">
-        <v>554.3504857043007</v>
+        <v>370.5019447702811</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1995.909162857192</v>
+        <v>1359.546482223453</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2369.374921118272</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2369.374921118272</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2369.374921118272</v>
+        <v>1712.315137493568</v>
       </c>
       <c r="W5" t="n">
-        <v>2369.374921118272</v>
+        <v>1359.546482223453</v>
       </c>
       <c r="X5" t="n">
-        <v>1995.909162857192</v>
+        <v>1359.546482223453</v>
       </c>
       <c r="Y5" t="n">
-        <v>1995.909162857192</v>
+        <v>1359.546482223453</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4662,31 +4662,31 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>285.8510101265796</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>281.2479710834698</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1704.018810322078</v>
+        <v>1349.56916835588</v>
       </c>
       <c r="C8" t="n">
-        <v>1335.056293381666</v>
+        <v>1349.56916835588</v>
       </c>
       <c r="D8" t="n">
-        <v>976.7905947749157</v>
+        <v>1349.56916835588</v>
       </c>
       <c r="E8" t="n">
-        <v>591.0023421766714</v>
+        <v>963.7809157576355</v>
       </c>
       <c r="F8" t="n">
-        <v>180.0164373870638</v>
+        <v>552.795010968028</v>
       </c>
       <c r="G8" t="n">
-        <v>166.0930333256547</v>
+        <v>134.8312028662149</v>
       </c>
       <c r="H8" t="n">
-        <v>166.0930333256547</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2443.387305656314</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2090.6186503862</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X8" t="n">
-        <v>2090.6186503862</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y8" t="n">
-        <v>2090.6186503862</v>
+        <v>1349.56916835588</v>
       </c>
     </row>
     <row r="9">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>415.489254012808</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="C10" t="n">
-        <v>415.489254012808</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="D10" t="n">
-        <v>415.489254012808</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="E10" t="n">
-        <v>415.489254012808</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>415.489254012808</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>415.489254012808</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>415.489254012808</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>415.489254012808</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W10" t="n">
-        <v>415.489254012808</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X10" t="n">
-        <v>415.489254012808</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="Y10" t="n">
-        <v>415.489254012808</v>
+        <v>184.0273259635867</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2367.412126099892</v>
+        <v>2034.004827175959</v>
       </c>
       <c r="C11" t="n">
         <v>1998.44960915948</v>
@@ -5030,16 +5030,16 @@
         <v>843.4097531648777</v>
       </c>
       <c r="G11" t="n">
-        <v>428.3373030098742</v>
+        <v>428.3373030098741</v>
       </c>
       <c r="H11" t="n">
-        <v>130.7537026186414</v>
+        <v>130.7537026186413</v>
       </c>
       <c r="I11" t="n">
-        <v>88.75680385811013</v>
+        <v>88.75680385811009</v>
       </c>
       <c r="J11" t="n">
-        <v>445.0415838374886</v>
+        <v>445.0415838374887</v>
       </c>
       <c r="K11" t="n">
         <v>1099.764915972788</v>
@@ -5048,43 +5048,43 @@
         <v>1550.799129221197</v>
       </c>
       <c r="M11" t="n">
-        <v>2084.331033893121</v>
+        <v>2084.331033893122</v>
       </c>
       <c r="N11" t="n">
-        <v>2631.109850951904</v>
+        <v>2638.958109839178</v>
       </c>
       <c r="O11" t="n">
-        <v>3141.930580718517</v>
+        <v>3141.930580718515</v>
       </c>
       <c r="P11" t="n">
-        <v>3855.285668165463</v>
+        <v>3855.285668165461</v>
       </c>
       <c r="Q11" t="n">
-        <v>4313.763870674451</v>
+        <v>4313.763870674449</v>
       </c>
       <c r="R11" t="n">
-        <v>4437.840192905506</v>
+        <v>4437.840192905504</v>
       </c>
       <c r="S11" t="n">
-        <v>4327.549524432601</v>
+        <v>4327.549524432599</v>
       </c>
       <c r="T11" t="n">
-        <v>4123.916188397183</v>
+        <v>4121.571776816822</v>
       </c>
       <c r="U11" t="n">
-        <v>3870.385711671019</v>
+        <v>3868.041300090658</v>
       </c>
       <c r="V11" t="n">
-        <v>3870.385711671019</v>
+        <v>3536.978412747087</v>
       </c>
       <c r="W11" t="n">
-        <v>3517.617056400905</v>
+        <v>3184.209757476973</v>
       </c>
       <c r="X11" t="n">
-        <v>3144.151298139825</v>
+        <v>2810.743999215893</v>
       </c>
       <c r="Y11" t="n">
-        <v>2754.011966164013</v>
+        <v>2420.604667240081</v>
       </c>
     </row>
     <row r="12">
@@ -5094,34 +5094,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>963.7885419070362</v>
+        <v>963.7885419070358</v>
       </c>
       <c r="C12" t="n">
-        <v>789.3355126259092</v>
+        <v>789.3355126259088</v>
       </c>
       <c r="D12" t="n">
-        <v>640.4011029646581</v>
+        <v>640.4011029646576</v>
       </c>
       <c r="E12" t="n">
-        <v>481.1636479592025</v>
+        <v>481.1636479592021</v>
       </c>
       <c r="F12" t="n">
-        <v>334.6290899860876</v>
+        <v>334.6290899860871</v>
       </c>
       <c r="G12" t="n">
-        <v>198.2659898187055</v>
+        <v>198.265989818705</v>
       </c>
       <c r="H12" t="n">
-        <v>107.764095456573</v>
+        <v>107.7640954565725</v>
       </c>
       <c r="I12" t="n">
-        <v>88.75680385811013</v>
+        <v>88.75680385811009</v>
       </c>
       <c r="J12" t="n">
-        <v>182.4340733487277</v>
+        <v>182.4340733487275</v>
       </c>
       <c r="K12" t="n">
-        <v>420.6982723290748</v>
+        <v>420.6982723290746</v>
       </c>
       <c r="L12" t="n">
         <v>787.3964326417401</v>
@@ -5136,7 +5136,7 @@
         <v>2119.157080836566</v>
       </c>
       <c r="P12" t="n">
-        <v>2429.656672312669</v>
+        <v>2429.656672312668</v>
       </c>
       <c r="Q12" t="n">
         <v>2587.298229959269</v>
@@ -5148,13 +5148,13 @@
         <v>2457.715990045264</v>
       </c>
       <c r="T12" t="n">
-        <v>2265.07298972312</v>
+        <v>2265.072989723119</v>
       </c>
       <c r="U12" t="n">
         <v>2037.005142857535</v>
       </c>
       <c r="V12" t="n">
-        <v>1801.853034625793</v>
+        <v>1801.853034625792</v>
       </c>
       <c r="W12" t="n">
         <v>1547.615677897591</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1010.897361919117</v>
+        <v>666.5785440687243</v>
       </c>
       <c r="C13" t="n">
-        <v>841.9611789912099</v>
+        <v>553.4662273936372</v>
       </c>
       <c r="D13" t="n">
-        <v>691.8445395788741</v>
+        <v>403.3495879813014</v>
       </c>
       <c r="E13" t="n">
-        <v>543.931445996481</v>
+        <v>403.3495879813014</v>
       </c>
       <c r="F13" t="n">
-        <v>500.002504447188</v>
+        <v>256.459640483391</v>
       </c>
       <c r="G13" t="n">
-        <v>332.299667821907</v>
+        <v>88.75680385811009</v>
       </c>
       <c r="H13" t="n">
-        <v>186.0824810397648</v>
+        <v>88.75680385811009</v>
       </c>
       <c r="I13" t="n">
-        <v>88.75680385811013</v>
+        <v>88.75680385811009</v>
       </c>
       <c r="J13" t="n">
         <v>133.8794363050457</v>
@@ -5203,16 +5203,16 @@
         <v>337.8666192539221</v>
       </c>
       <c r="L13" t="n">
-        <v>654.4264177024181</v>
+        <v>654.4264177024183</v>
       </c>
       <c r="M13" t="n">
-        <v>998.5834633019671</v>
+        <v>998.5834633019674</v>
       </c>
       <c r="N13" t="n">
         <v>1339.991840007832</v>
       </c>
       <c r="O13" t="n">
-        <v>1639.321438928245</v>
+        <v>1639.321438928246</v>
       </c>
       <c r="P13" t="n">
         <v>1871.928939361905</v>
@@ -5221,28 +5221,28 @@
         <v>1949.539235514419</v>
       </c>
       <c r="R13" t="n">
-        <v>1859.708778271947</v>
+        <v>1949.539235514419</v>
       </c>
       <c r="S13" t="n">
-        <v>1668.022894098774</v>
+        <v>1949.539235514419</v>
       </c>
       <c r="T13" t="n">
-        <v>1668.022894098774</v>
+        <v>1727.772620083946</v>
       </c>
       <c r="U13" t="n">
-        <v>1668.022894098774</v>
+        <v>1438.669753209589</v>
       </c>
       <c r="V13" t="n">
-        <v>1413.338405892887</v>
+        <v>1183.985265003702</v>
       </c>
       <c r="W13" t="n">
-        <v>1413.338405892887</v>
+        <v>894.5680949667417</v>
       </c>
       <c r="X13" t="n">
-        <v>1413.338405892887</v>
+        <v>666.5785440687243</v>
       </c>
       <c r="Y13" t="n">
-        <v>1192.545826749356</v>
+        <v>666.5785440687243</v>
       </c>
     </row>
     <row r="14">
@@ -5267,7 +5267,7 @@
         <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5279,19 +5279,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>932.5990189467745</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1797.117834600129</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.328657580449</v>
+        <v>2330.649739272054</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807095</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750059</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P14" t="n">
         <v>4470.748294107237</v>
@@ -5318,7 +5318,7 @@
         <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
         <v>2760.816196754298</v>
@@ -5346,7 +5346,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5355,19 +5355,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
         <v>2125.96131142685</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>802.8431224204016</v>
+        <v>567.9454261809099</v>
       </c>
       <c r="C16" t="n">
-        <v>633.9069394924948</v>
+        <v>399.009243253003</v>
       </c>
       <c r="D16" t="n">
-        <v>633.9069394924948</v>
+        <v>399.009243253003</v>
       </c>
       <c r="E16" t="n">
-        <v>485.9938459101016</v>
+        <v>399.009243253003</v>
       </c>
       <c r="F16" t="n">
-        <v>339.1038984121913</v>
+        <v>399.009243253003</v>
       </c>
       <c r="G16" t="n">
         <v>339.1038984121913</v>
@@ -5434,10 +5434,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5449,37 +5449,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
         <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1674.827124689057</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1674.827124689057</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V16" t="n">
-        <v>1674.827124689057</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="W16" t="n">
-        <v>1385.409954652097</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="X16" t="n">
-        <v>1157.420403754079</v>
+        <v>970.3864701546797</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.4915872506414</v>
+        <v>749.5938910111496</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001584</v>
@@ -5513,28 +5513,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.32865758045</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807096</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5546,19 +5546,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5595,10 +5595,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>686.6979017231758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>686.6979017231758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>536.5812623108401</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="E19" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="F19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="J19" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5701,22 +5701,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1764.65758193153</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1475.554715057173</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V19" t="n">
-        <v>1220.870226851286</v>
+        <v>999.1036114208129</v>
       </c>
       <c r="W19" t="n">
-        <v>931.4530568143257</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>907.490480866706</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>686.6979017231758</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>786.6724891157196</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1237.706702364128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2216.257005193957</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="21">
@@ -5832,10 +5832,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>263.2638710736755</v>
+        <v>876.4469737784535</v>
       </c>
       <c r="C22" t="n">
-        <v>263.2638710736755</v>
+        <v>707.5107908505465</v>
       </c>
       <c r="D22" t="n">
-        <v>263.2638710736755</v>
+        <v>557.3941514382108</v>
       </c>
       <c r="E22" t="n">
-        <v>263.2638710736755</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736755</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1726.898991062667</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1437.79612418831</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V22" t="n">
-        <v>1183.111635982423</v>
+        <v>1278.888017752223</v>
       </c>
       <c r="W22" t="n">
-        <v>893.6944659454628</v>
+        <v>1278.888017752223</v>
       </c>
       <c r="X22" t="n">
-        <v>665.7049150474454</v>
+        <v>1278.888017752223</v>
       </c>
       <c r="Y22" t="n">
-        <v>444.9123359039153</v>
+        <v>1058.095438608693</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5987,28 +5987,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6069,10 +6069,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6148,10 +6148,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442062</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6160,7 +6160,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
@@ -6172,25 +6172,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U25" t="n">
-        <v>1329.328822764566</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>1329.328822764566</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>1039.911652727605</v>
+        <v>725.9916293201817</v>
       </c>
       <c r="X25" t="n">
-        <v>811.9221018295875</v>
+        <v>498.0020784221643</v>
       </c>
       <c r="Y25" t="n">
-        <v>591.1295226860574</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6224,19 +6224,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N26" t="n">
-        <v>2979.169639353395</v>
+        <v>2915.526830679739</v>
       </c>
       <c r="O26" t="n">
         <v>3482.142110232732</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>481.6968904858347</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839442</v>
@@ -6382,10 +6382,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>140.6836668953299</v>
+        <v>140.6836668953301</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6427,7 +6427,7 @@
         <v>481.6968904858347</v>
       </c>
       <c r="Y28" t="n">
-        <v>481.6968904858347</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6437,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>786.6724891157196</v>
+        <v>888.4135721382786</v>
       </c>
       <c r="L29" t="n">
-        <v>1237.706702364128</v>
+        <v>1339.447785386687</v>
       </c>
       <c r="M29" t="n">
-        <v>2216.257005193957</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420604</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6494,19 +6494,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6546,7 +6546,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>263.2638710736756</v>
+        <v>260.9043113423044</v>
       </c>
       <c r="C31" t="n">
-        <v>263.2638710736755</v>
+        <v>260.9043113423044</v>
       </c>
       <c r="D31" t="n">
-        <v>263.2638710736755</v>
+        <v>110.7876719299686</v>
       </c>
       <c r="E31" t="n">
-        <v>263.2638710736755</v>
+        <v>110.7876719299686</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736755</v>
+        <v>110.7876719299686</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>110.7876719299686</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>110.7876719299686</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6652,19 +6652,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1437.79612418831</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1183.111635982423</v>
+        <v>999.1036114208125</v>
       </c>
       <c r="W31" t="n">
-        <v>893.6944659454628</v>
+        <v>709.6864413838518</v>
       </c>
       <c r="X31" t="n">
-        <v>665.7049150474454</v>
+        <v>481.6968904858345</v>
       </c>
       <c r="Y31" t="n">
-        <v>444.9123359039153</v>
+        <v>260.9043113423044</v>
       </c>
     </row>
     <row r="32">
@@ -6689,37 +6689,37 @@
         <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6783,7 +6783,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839437</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839437</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839437</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839437</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
         <v>95.56103444839442</v>
@@ -6862,7 +6862,7 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M34" t="n">
         <v>1005.387693892251</v>
@@ -6877,25 +6877,25 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
         <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>1015.408799357142</v>
+        <v>1015.408799357143</v>
       </c>
       <c r="W34" t="n">
-        <v>725.9916293201816</v>
+        <v>725.991629320182</v>
       </c>
       <c r="X34" t="n">
         <v>498.0020784221642</v>
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C35" t="n">
         <v>1711.594658697161</v>
@@ -6923,7 +6923,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467787</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398487</v>
@@ -6938,25 +6938,25 @@
         <v>437.4316968760676</v>
       </c>
       <c r="K35" t="n">
-        <v>771.2510705659141</v>
+        <v>792.1780824632688</v>
       </c>
       <c r="L35" t="n">
-        <v>1496.733761127192</v>
+        <v>1243.212295711678</v>
       </c>
       <c r="M35" t="n">
-        <v>2030.265665799117</v>
+        <v>1776.744200383602</v>
       </c>
       <c r="N35" t="n">
-        <v>2577.044482857899</v>
+        <v>2323.523017442385</v>
       </c>
       <c r="O35" t="n">
-        <v>3080.016953737236</v>
+        <v>2826.495488321721</v>
       </c>
       <c r="P35" t="n">
-        <v>3474.791320094414</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q35" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R35" t="n">
         <v>4057.345844834458</v>
@@ -6971,7 +6971,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W35" t="n">
         <v>3040.963574146293</v>
@@ -7017,10 +7017,10 @@
         <v>174.8241863873065</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L36" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698007</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899671</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257047</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913848</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415477</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643395</v>
+        <v>229.79051496434</v>
       </c>
       <c r="H37" t="n">
         <v>131.0229611302705</v>
@@ -7093,52 +7093,52 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K37" t="n">
         <v>423.2675027973144</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982178</v>
       </c>
       <c r="M37" t="n">
         <v>1176.995117350173</v>
       </c>
       <c r="N37" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O37" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P37" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q37" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R37" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S37" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T37" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570353</v>
       </c>
       <c r="U37" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V37" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386256</v>
       </c>
       <c r="W37" t="n">
         <v>1262.182746297368</v>
       </c>
       <c r="X37" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519666</v>
+        <v>908.299882151967</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J38" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K38" t="n">
-        <v>924.7493799910142</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L38" t="n">
-        <v>1394.992678104634</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M38" t="n">
-        <v>1928.524582776558</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N38" t="n">
-        <v>2475.303399835341</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O38" t="n">
-        <v>3355.268050164796</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P38" t="n">
-        <v>3750.042416521974</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q38" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J39" t="n">
         <v>174.8241863873065</v>
@@ -7257,7 +7257,7 @@
         <v>413.0883853676536</v>
       </c>
       <c r="L39" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698007</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899671</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257047</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913848</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415477</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G40" t="n">
-        <v>229.79051496434</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J40" t="n">
         <v>172.7749345960314</v>
@@ -7336,7 +7336,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M40" t="n">
         <v>1176.995117350173</v>
@@ -7354,28 +7354,28 @@
         <v>2313.972430572252</v>
       </c>
       <c r="R40" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S40" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T40" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U40" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V40" t="n">
-        <v>1504.150283386256</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W40" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X40" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.299882151967</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.594658697163</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038486</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.439973388315</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467807</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J41" t="n">
-        <v>270.0260478557146</v>
+        <v>390.976215743484</v>
       </c>
       <c r="K41" t="n">
-        <v>792.1780824632697</v>
+        <v>1045.699547878784</v>
       </c>
       <c r="L41" t="n">
-        <v>1243.212295711679</v>
+        <v>1496.733761127192</v>
       </c>
       <c r="M41" t="n">
-        <v>1776.744200383603</v>
+        <v>2030.265665799117</v>
       </c>
       <c r="N41" t="n">
-        <v>2323.523017442385</v>
+        <v>2577.044482857899</v>
       </c>
       <c r="O41" t="n">
-        <v>2826.495488321722</v>
+        <v>3080.016953737236</v>
       </c>
       <c r="P41" t="n">
-        <v>3539.850575768668</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q41" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S41" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U41" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W41" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y41" t="n">
-        <v>2372.25774980555</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J42" t="n">
         <v>174.8241863873065</v>
@@ -7494,7 +7494,7 @@
         <v>413.0883853676536</v>
       </c>
       <c r="L42" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
@@ -7564,16 +7564,16 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960311</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M43" t="n">
         <v>1176.995117350172</v>
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C44" t="n">
         <v>1711.594658697161</v>
@@ -7634,61 +7634,61 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467786</v>
       </c>
       <c r="G44" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398484</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668888</v>
       </c>
       <c r="I44" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J44" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K44" t="n">
-        <v>603.8454215455611</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L44" t="n">
-        <v>1468.364237198916</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.89614187084</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N44" t="n">
-        <v>2548.674958929623</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O44" t="n">
-        <v>3355.268050164795</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P44" t="n">
-        <v>3750.042416521973</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q44" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R44" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W44" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y44" t="n">
         <v>2372.257749805548</v>
@@ -7701,37 +7701,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C45" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D45" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E45" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F45" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G45" t="n">
-        <v>190.6561028572841</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H45" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676537</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L45" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698006</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899669</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257046</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913848</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415477</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643393</v>
+        <v>229.79051496434</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302711</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M46" t="n">
         <v>1176.995117350173</v>
@@ -7828,19 +7828,19 @@
         <v>2313.972430572251</v>
       </c>
       <c r="R46" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S46" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U46" t="n">
         <v>1711.385138644069</v>
       </c>
       <c r="V46" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386256</v>
       </c>
       <c r="W46" t="n">
         <v>1262.182746297368</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347424</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519667</v>
+        <v>908.299882151967</v>
       </c>
     </row>
   </sheetData>
@@ -8067,10 +8067,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>305.7768166293432</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>220.2967615625197</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8699,10 +8699,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>7.927534229569574</v>
       </c>
       <c r="O11" t="n">
-        <v>7.927534229572416</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8927,22 +8927,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>317.5146261106144</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>133.253057640027</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>170.1140909277306</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>29.61882225792094</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400255</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9881,13 +9881,13 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>344.7025836476837</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>64.28566532692525</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>170.1140909277306</v>
+        <v>103.7862464855144</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10124,16 +10124,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,10 +10586,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>21.13839585591376</v>
       </c>
       <c r="L35" t="n">
-        <v>277.2206841544135</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10601,13 +10601,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>19.40311602546547</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10835,16 +10835,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>277.220684154413</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>122.1718867553226</v>
       </c>
       <c r="K41" t="n">
-        <v>190.2350110279885</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11075,13 +11075,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,16 +11309,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>306.6874953089242</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>277.2206841544135</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>330.073225934693</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>2.320967464555924</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>55.2656275902913</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>101.9313958891311</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23659,13 +23659,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>106.7195168666246</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23704,22 +23704,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>47.38512501369104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>16.14213605696602</v>
       </c>
       <c r="X19" t="n">
-        <v>201.9867052008935</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>182.1679443159948</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>79.70687673253072</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24376,10 +24376,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24412,16 +24412,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>16.14213605696621</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>74.78531590648738</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C28" t="n">
-        <v>96.41917990352164</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,10 +24610,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>81.27804930307914</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>182.167944315995</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>16.14213605696665</v>
+        <v>105.0742887270139</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>2.913225216616411e-13</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>-8.739675649849232e-13</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>-5.471179065352771e-13</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26326,7 +26326,7 @@
         <v>258103.1614765391</v>
       </c>
       <c r="G2" t="n">
-        <v>258103.1614765391</v>
+        <v>258103.1614765392</v>
       </c>
       <c r="H2" t="n">
         <v>258103.1614765391</v>
@@ -26335,16 +26335,16 @@
         <v>258103.1614765391</v>
       </c>
       <c r="J2" t="n">
+        <v>258103.1614765391</v>
+      </c>
+      <c r="K2" t="n">
         <v>258103.1614765392</v>
-      </c>
-      <c r="K2" t="n">
-        <v>258103.1614765391</v>
       </c>
       <c r="L2" t="n">
         <v>258103.1614765391</v>
       </c>
       <c r="M2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.5752058923</v>
       </c>
       <c r="N2" t="n">
         <v>266838.5752058921</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>532785.1170417529</v>
+        <v>532785.1170417534</v>
       </c>
       <c r="C3" t="n">
-        <v>54350.41925867899</v>
+        <v>54350.41925867854</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>701982.4944785829</v>
+        <v>701982.4944785831</v>
       </c>
       <c r="F3" t="n">
-        <v>24369.86217639748</v>
+        <v>24369.86217639761</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>163576.6135091293</v>
+        <v>163576.6135091294</v>
       </c>
       <c r="K3" t="n">
-        <v>12636.65595825503</v>
+        <v>12636.65595825492</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>101126.2087541142</v>
+        <v>101126.2087541141</v>
       </c>
       <c r="N3" t="n">
-        <v>20831.74732233208</v>
+        <v>20831.74732233211</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,40 +26415,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>233988.7908692826</v>
+        <v>233988.7908692824</v>
       </c>
       <c r="C4" t="n">
         <v>218780.3249983351</v>
       </c>
       <c r="D4" t="n">
-        <v>218780.324998335</v>
+        <v>218780.3249983351</v>
       </c>
       <c r="E4" t="n">
-        <v>25961.10295481879</v>
+        <v>25961.10295481874</v>
       </c>
       <c r="F4" t="n">
-        <v>32032.95503079773</v>
+        <v>32032.9550307977</v>
       </c>
       <c r="G4" t="n">
-        <v>32032.9550307977</v>
+        <v>32032.95503079769</v>
       </c>
       <c r="H4" t="n">
-        <v>32032.95503079768</v>
+        <v>32032.95503079769</v>
       </c>
       <c r="I4" t="n">
-        <v>32032.9550307977</v>
+        <v>32032.95503079767</v>
       </c>
       <c r="J4" t="n">
         <v>32032.95503079769</v>
       </c>
       <c r="K4" t="n">
-        <v>32032.9550307977</v>
+        <v>32032.95503079769</v>
       </c>
       <c r="L4" t="n">
-        <v>32032.95503079768</v>
+        <v>32032.95503079769</v>
       </c>
       <c r="M4" t="n">
-        <v>66395.57832303867</v>
+        <v>66395.5783230387</v>
       </c>
       <c r="N4" t="n">
         <v>66395.5783230387</v>
@@ -26457,7 +26457,7 @@
         <v>66395.5783230387</v>
       </c>
       <c r="P4" t="n">
-        <v>66395.57832303866</v>
+        <v>66395.5783230387</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78952.41907175124</v>
+        <v>78952.41907175127</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,10 +26476,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91212.30300509759</v>
+        <v>91212.30300509756</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
@@ -26503,7 +26503,7 @@
         <v>89377.94167480612</v>
       </c>
       <c r="N5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="O5" t="n">
         <v>89377.94167480612</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-578887.7517768948</v>
+        <v>-578887.751776895</v>
       </c>
       <c r="C6" t="n">
-        <v>-89151.2471145314</v>
+        <v>-89151.24711453094</v>
       </c>
       <c r="D6" t="n">
-        <v>-34800.82785585229</v>
+        <v>-34800.82785585235</v>
       </c>
       <c r="E6" t="n">
-        <v>-569591.7333168907</v>
+        <v>-569724.6133790774</v>
       </c>
       <c r="F6" t="n">
-        <v>105316.8260156302</v>
+        <v>105249.6305254044</v>
       </c>
       <c r="G6" t="n">
-        <v>129686.6881920276</v>
+        <v>129619.4927018021</v>
       </c>
       <c r="H6" t="n">
-        <v>129686.6881920278</v>
+        <v>129619.492701802</v>
       </c>
       <c r="I6" t="n">
-        <v>129686.6881920278</v>
+        <v>129619.492701802</v>
       </c>
       <c r="J6" t="n">
-        <v>-33889.92531710146</v>
+        <v>-33957.12080732737</v>
       </c>
       <c r="K6" t="n">
-        <v>117050.0322337727</v>
+        <v>116982.8367435472</v>
       </c>
       <c r="L6" t="n">
-        <v>129686.6881920278</v>
+        <v>129619.492701802</v>
       </c>
       <c r="M6" t="n">
-        <v>9938.846453933133</v>
+        <v>9938.846453933336</v>
       </c>
       <c r="N6" t="n">
-        <v>90233.30788571524</v>
+        <v>90233.30788571523</v>
       </c>
       <c r="O6" t="n">
         <v>111065.0552080474</v>
       </c>
       <c r="P6" t="n">
-        <v>111065.0552080473</v>
+        <v>111065.0552080472</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>335.4773500371854</v>
+        <v>335.4773500371858</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,7 +26744,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>625.1877111996807</v>
+        <v>625.1877111996811</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1109.460048226377</v>
+        <v>1109.460048226376</v>
       </c>
       <c r="F4" t="n">
         <v>1194.51293060493</v>
@@ -26823,10 +26823,10 @@
         <v>1014.336461208614</v>
       </c>
       <c r="N4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="O4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="P4" t="n">
         <v>1014.336461208614</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>335.4773500371854</v>
+        <v>335.4773500371858</v>
       </c>
       <c r="C3" t="n">
-        <v>42.26631417990114</v>
+        <v>42.2663141799008</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762115</v>
+        <v>712.033036376212</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>625.1877111996807</v>
+        <v>625.1877111996811</v>
       </c>
       <c r="C4" t="n">
-        <v>49.09956155487487</v>
+        <v>49.09956155487441</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>435.172775471821</v>
+        <v>435.1727754718205</v>
       </c>
       <c r="F4" t="n">
-        <v>85.0528823785537</v>
+        <v>85.05288237855416</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>625.1877111996807</v>
+        <v>625.1877111996811</v>
       </c>
       <c r="K4" t="n">
-        <v>49.09956155487487</v>
+        <v>49.09956155487441</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>254.9963060755051</v>
+        <v>254.9963060755047</v>
       </c>
       <c r="N4" t="n">
-        <v>85.05288237855393</v>
+        <v>85.05288237855405</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>625.1877111996807</v>
+        <v>625.1877111996811</v>
       </c>
       <c r="K4" t="n">
-        <v>49.09956155487487</v>
+        <v>49.09956155487441</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>435.172775471821</v>
+        <v>435.1727754718205</v>
       </c>
       <c r="N4" t="n">
-        <v>85.0528823785537</v>
+        <v>85.05288237855416</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>104.4057851458854</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>152.8406482652064</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>325.6629130260452</v>
       </c>
       <c r="I2" t="n">
-        <v>158.4819577621302</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>65.15181506969903</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>178.2876470175122</v>
       </c>
       <c r="T2" t="n">
-        <v>217.1921225298086</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2377606947592</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27473,10 +27473,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>105.266377021573</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>64.55231966469896</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>32.5315443552815</v>
       </c>
       <c r="S3" t="n">
-        <v>35.81705739168777</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,13 +27552,13 @@
         <v>167.386020202654</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.8485356494663</v>
       </c>
       <c r="I4" t="n">
         <v>137.2577032236024</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.97437832727176</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>35.50496339607939</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>150.0922278807118</v>
@@ -27591,10 +27591,10 @@
         <v>225.3607639443884</v>
       </c>
       <c r="U4" t="n">
-        <v>180.6534803891287</v>
+        <v>286.2860315843561</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>120.8460075404899</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>49.33324773045751</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,19 +27780,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890128</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>214.0276446994161</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>243.8434339289652</v>
       </c>
       <c r="I8" t="n">
-        <v>40.90276525462387</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28020,19 +28020,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>6.182121090548179</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>49.29739803848682</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,10 +28068,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.348652663466071</v>
+        <v>1.348652663466072</v>
       </c>
       <c r="H2" t="n">
-        <v>13.8118890897219</v>
+        <v>13.81188908972192</v>
       </c>
       <c r="I2" t="n">
-        <v>51.99393180827575</v>
+        <v>51.99393180827581</v>
       </c>
       <c r="J2" t="n">
-        <v>114.4652089958536</v>
+        <v>114.4652089958537</v>
       </c>
       <c r="K2" t="n">
-        <v>171.5536762403724</v>
+        <v>171.5536762403725</v>
       </c>
       <c r="L2" t="n">
-        <v>212.8275051899222</v>
+        <v>212.8275051899224</v>
       </c>
       <c r="M2" t="n">
-        <v>236.8116069938369</v>
+        <v>236.8116069938372</v>
       </c>
       <c r="N2" t="n">
-        <v>240.6434663739099</v>
+        <v>240.6434663739102</v>
       </c>
       <c r="O2" t="n">
-        <v>227.2328014515691</v>
+        <v>227.2328014515694</v>
       </c>
       <c r="P2" t="n">
-        <v>193.9379388222505</v>
+        <v>193.9379388222507</v>
       </c>
       <c r="Q2" t="n">
-        <v>145.6393153118718</v>
+        <v>145.6393153118719</v>
       </c>
       <c r="R2" t="n">
-        <v>84.71730287145066</v>
+        <v>84.71730287145074</v>
       </c>
       <c r="S2" t="n">
-        <v>30.73242256873312</v>
+        <v>30.73242256873316</v>
       </c>
       <c r="T2" t="n">
-        <v>5.903727034322729</v>
+        <v>5.903727034322735</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1078922130772857</v>
+        <v>0.1078922130772858</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7215927906460216</v>
+        <v>0.7215927906460222</v>
       </c>
       <c r="H3" t="n">
-        <v>6.969067214923419</v>
+        <v>6.969067214923427</v>
       </c>
       <c r="I3" t="n">
-        <v>24.8443131867161</v>
+        <v>24.84431318671612</v>
       </c>
       <c r="J3" t="n">
-        <v>68.1746943127454</v>
+        <v>68.17469431274547</v>
       </c>
       <c r="K3" t="n">
-        <v>116.5214112860288</v>
+        <v>116.521411286029</v>
       </c>
       <c r="L3" t="n">
-        <v>156.6774171093478</v>
+        <v>156.677417109348</v>
       </c>
       <c r="M3" t="n">
-        <v>182.835155770266</v>
+        <v>182.8351557702662</v>
       </c>
       <c r="N3" t="n">
-        <v>187.6742583005194</v>
+        <v>187.6742583005196</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6852812025207</v>
+        <v>171.6852812025209</v>
       </c>
       <c r="P3" t="n">
-        <v>137.7925742067828</v>
+        <v>137.792574206783</v>
       </c>
       <c r="Q3" t="n">
-        <v>92.11068674983251</v>
+        <v>92.1106867498326</v>
       </c>
       <c r="R3" t="n">
-        <v>44.80205063326792</v>
+        <v>44.80205063326796</v>
       </c>
       <c r="S3" t="n">
-        <v>13.40326959818377</v>
+        <v>13.40326959818378</v>
       </c>
       <c r="T3" t="n">
-        <v>2.908525327209182</v>
+        <v>2.908525327209185</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04747320991092249</v>
+        <v>0.04747320991092253</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6049591558047606</v>
+        <v>0.6049591558047611</v>
       </c>
       <c r="H4" t="n">
-        <v>5.378636857973238</v>
+        <v>5.378636857973244</v>
       </c>
       <c r="I4" t="n">
-        <v>18.1927717036559</v>
+        <v>18.19277170365591</v>
       </c>
       <c r="J4" t="n">
-        <v>42.77061231539657</v>
+        <v>42.77061231539661</v>
       </c>
       <c r="K4" t="n">
-        <v>70.28525464713489</v>
+        <v>70.28525464713496</v>
       </c>
       <c r="L4" t="n">
-        <v>89.9409275821005</v>
+        <v>89.9409275821006</v>
       </c>
       <c r="M4" t="n">
-        <v>94.83009748674077</v>
+        <v>94.83009748674087</v>
       </c>
       <c r="N4" t="n">
-        <v>92.57524972419583</v>
+        <v>92.57524972419593</v>
       </c>
       <c r="O4" t="n">
-        <v>85.50822685865838</v>
+        <v>85.50822685865846</v>
       </c>
       <c r="P4" t="n">
-        <v>73.16706008024119</v>
+        <v>73.16706008024127</v>
       </c>
       <c r="Q4" t="n">
-        <v>50.657079855615</v>
+        <v>50.65707985561505</v>
       </c>
       <c r="R4" t="n">
-        <v>27.20116349645768</v>
+        <v>27.20116349645771</v>
       </c>
       <c r="S4" t="n">
-        <v>10.54278819707023</v>
+        <v>10.54278819707024</v>
       </c>
       <c r="T4" t="n">
-        <v>2.584825483893067</v>
+        <v>2.58482548389307</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03299777213480516</v>
+        <v>0.03299777213480519</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970255</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,7 +32315,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
         <v>508.9565619138796</v>
@@ -32330,7 +32330,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
@@ -32552,7 +32552,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -32567,7 +32567,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
@@ -32789,7 +32789,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -32804,7 +32804,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
@@ -33041,10 +33041,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33266,7 +33266,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233475</v>
@@ -33278,7 +33278,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
@@ -33503,7 +33503,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233475</v>
@@ -33515,7 +33515,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
@@ -33737,7 +33737,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33977,7 +33977,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233475</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34214,7 +34214,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233475</v>
@@ -34226,7 +34226,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
@@ -34463,7 +34463,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>102.515919641241</v>
+        <v>102.5159196412412</v>
       </c>
       <c r="K2" t="n">
-        <v>275.6092377665566</v>
+        <v>275.6092377665567</v>
       </c>
       <c r="L2" t="n">
-        <v>394.7223047703854</v>
+        <v>394.7223047703856</v>
       </c>
       <c r="M2" t="n">
-        <v>455.9789072593967</v>
+        <v>455.9789072593969</v>
       </c>
       <c r="N2" t="n">
-        <v>448.5773271893032</v>
+        <v>448.5773271893034</v>
       </c>
       <c r="O2" t="n">
-        <v>377.9347712926278</v>
+        <v>377.9347712926281</v>
       </c>
       <c r="P2" t="n">
-        <v>284.5036512384636</v>
+        <v>284.5036512384638</v>
       </c>
       <c r="Q2" t="n">
-        <v>135.648616097327</v>
+        <v>135.6486160973271</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>67.42810298648754</v>
+        <v>67.42810298648762</v>
       </c>
       <c r="K3" t="n">
-        <v>243.1452093242484</v>
+        <v>243.1452093242486</v>
       </c>
       <c r="L3" t="n">
-        <v>388.9633826329328</v>
+        <v>388.963382632933</v>
       </c>
       <c r="M3" t="n">
-        <v>506.4061855982476</v>
+        <v>506.4061855982478</v>
       </c>
       <c r="N3" t="n">
-        <v>362.1093628465293</v>
+        <v>535.6749205607398</v>
       </c>
       <c r="O3" t="n">
-        <v>422.9513560348058</v>
+        <v>249.3857983205962</v>
       </c>
       <c r="P3" t="n">
-        <v>322.2809354323898</v>
+        <v>322.2809354323899</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.2062003996601</v>
+        <v>162.2062003996602</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>48.01576282125204</v>
+        <v>48.01576282125211</v>
       </c>
       <c r="L4" t="n">
-        <v>117.5309528424166</v>
+        <v>117.5309528424167</v>
       </c>
       <c r="M4" t="n">
-        <v>134.4139744485814</v>
+        <v>134.4139744485815</v>
       </c>
       <c r="N4" t="n">
-        <v>136.7074221034244</v>
+        <v>136.7074221034245</v>
       </c>
       <c r="O4" t="n">
-        <v>110.093354772698</v>
+        <v>110.0933547726981</v>
       </c>
       <c r="P4" t="n">
-        <v>70.44561934513467</v>
+        <v>70.44561934513476</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>560.2293696424811</v>
       </c>
       <c r="O11" t="n">
-        <v>515.9805351177915</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>654.7059126660149</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>641.306058528246</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
         <v>370.4021821340054</v>
@@ -35978,7 +35978,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>507.3053774831311</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>89.23202080014572</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36215,7 +36215,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282446</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36452,7 +36452,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
         <v>661.3366991265652</v>
@@ -36601,13 +36601,13 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>897.0044190605952</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>572.3386662151444</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
@@ -36689,10 +36689,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>507.3053774831311</v>
+        <v>440.9775330409149</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
@@ -36844,16 +36844,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013292</v>
@@ -36926,7 +36926,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>743.6379293484354</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013292</v>
@@ -37163,7 +37163,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37306,10 +37306,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>358.3296824113143</v>
       </c>
       <c r="L35" t="n">
-        <v>732.8107985467457</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
@@ -37321,13 +37321,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>474.9932304177976</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37555,16 +37555,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>675.9826703737849</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013292</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37710,7 +37710,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>312.9588877240352</v>
       </c>
       <c r="K41" t="n">
-        <v>527.426297583389</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
@@ -37795,13 +37795,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013292</v>
@@ -37874,7 +37874,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -37947,7 +37947,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
@@ -38029,16 +38029,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>814.7404961971433</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>675.9826703737854</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
@@ -38184,7 +38184,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
